--- a/Testdata/TC_47.xlsx
+++ b/Testdata/TC_47.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>BBoAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlkpJ3YxuzDHSzI1SyDEmO13kpRuTYYj0iFXJoWW8pkCBFLiiKYFOkV/QpRYFuF20CpLu9/Euw9m6f+gs9c+HwIjlbbRfGmnNuc+bMuY7Rm9dzalyRKPbD4EHFrlkVgwRu6PnBxYNKws6r9v3Kmw7qXruEHuMIzwkDYgO4gnj/OvYfVGaMLfZNc7lc1paNWhhdmHXLss2Hg/7YnZE5rvpBzHDgkorm8l7NVXFQ25sPCMMeZlhyPqj0xr1am/huB2ADHOALEtVaSewHJI67AfOZT2LOGRHMSLszeFsezKnX7tdsZK7BM8pW4lNP0hUoJVzRwbZk4s+JU7fs3aq1W23YE2tvf8fet+u1e1bjnZRRE6I+jtmYRFe+KwBjhucLwW7tNmxrb8e268jcSASyMgM4aEi9EbnyY+K1CaXxVhYx1QU2XQan3s6YFjJzvErQ66twGOHFbOIzSrZTYzRoGfNA6ZIJcdBBGBEX7PdaKh2R5TBSZp0s+oCdzPyIrTp4tbWsk5hEwwU30nasDuqEAWtSErGTBdw18cAVAOGwKCHIvAOZMXX82IVvP0iI55xjGueZCkh0GkaX8QK75Aji2OQylgENsQcOx/yY+W6cCVjDoOMoXIBI2L0VUu8AxKbUGzBadi8AI/ONW2F4WRZfRCJxr+KG4VbnWMtfg6PxLFwOA7oaJ9PYjfwp8TqtlHojDvGQVNztJGbhHLTIQEjCcpAV/IMQLINRh7j+HNNjCmaMnQZIKQBQM2Hhuc/aIU3mgbZnCYpO4UQTcq1PqNdoCNcbcKuHQS8oSdmIK3KMwmXqOetwYYQcuBm7+kbWMWXqDsCUT64jxI3wUx74FCpE/i5y0KJXjGeEsI0uITGIJ8MDXnOcJqXIzJYI/BKcG9RwLCgbVfEzsax98QPbajTqBt7ddCkSHSXz4RQC+EocyLEBVwIhOAJtURxcAvTUZ7OjZqr6BgySB76Tfh2HIFQXFK8EWBslD0O9wKWJR2QG6AXnwiO5bor6TjxaA/UhqB2Eg9VkteCZwLyDokPOcUKhODHIIRdZeiiBUTO+LNPkQegkoukFO7z0x1D7XW9ecyE78vpWc8M5B5hQck/HyMzT8xTvkm5w0cfBRQJJVNuxDNfuxcN/EuEg5sfRObPkaZuJUHovMpc765eLzBIJmpD5IowwHYBN/IMkEKVS1QIw7gCzmVpB0FLipvY1M1bNVVQq1flVZCL85Al4bs+HXw4qqLjDyw5DBnMRhvgZB6EHNR5TfxoVHGwjDi4rq3ypq/HTbVkFU/tDlwmJ5YdkxVuPbKHg3F8dO0WIFWqDSs54tLNbhx4M2imxRuLEI4Kp0YX+kxGjF1yRmM2Bbd8Ykdj34MvHdN94i0yJDwEvTKRCbmvuPB86iMi7CfTRK6FKE/QtQooEkEov/ADTdUKNyRicM4IjusoRyqP2Qxfobn/6r5tfP3n+9Mvbjx69/Pr9//z9l8//8bObxx/Ax+1f/nrzyS/kMSUxmuApJUKhSWt312rsgKNpEFKpAYq7l7hMwM7ORLHXa6S6VrFod3vtw35L5BINTNl5I5HwYOjjVZhky7E8hNhIXKmZeoIkcSZpblLrArZDeIWXUcgb1CtSpM7j72KUtnjx7MsXz/50J7cyWFZX7L29e1W7/sqyA62+vUanyw5v/GVfl44VO1XrXrVezxGXaNAIpiNo47Sdep7DJwmr3rBsncc97cibiMooJWmCL8wSnwS1wyRg0Uq7QH6dIoXjTyBENFqGQm6hXPTrj1/++VGBSllXQYpSQLkwiaQ3melCiD4aTYzx8GTU7hqT7pj7SYbL0Unh30GsdtfxVHCqIEgw/QHMxHwiNirQ7FWM8Nwg2J0ZK4jEXBwWnG0TVG70miLLWh5GYbKQN5JjyKAbKHU22cixIdcInLDnWtLJUBvIpa43f/tqE4M6iHKzk8BnerjLw1ABI0E5vIraL/75/JsPnz99evvk5zff/KQgQe2jZx7wc4im/FK7PaQ8VW9KEHQ6Fsa8tH6Uqy8KyJvG49APWOzY90W/qFYIWG0uTfxGvTmUPCFY2AvgJQh6C8fda6YC2zlCZhEAei4wVNswa6s1QObwzK7//s1vb3/11e3nT15++Mebj/5w88nnL5797uXj38uou3305PbTxyrLlwuB0IU367IBNMTs5xo8Gg1eu41v3/vMCEJmQM9hJCIjffveFzlhXFHRnWSSoZ3TihRVWCPNM3M+I6eK1qHAp1lkA9DmJayhKVQRCxe+m23yTpWL4nEnEN/rTapJTIwQ2qnvw0mKxBnz/8qnWGRJPX7DqvPXnQzEJyo8xXHO9Ic0nEKTkSLEbFUiKXB9N0NGK/Y77A9bzX5GIpUYRh6MYhYfEPkHSntKXlJ6cbrSQ0UGASw0fm5C+Ti8RraO0pJzacxUY+V50+Ppb/NYVqCA0TyKZEMUqIfKcbKAbpipBvZuvHiTyfW/R7JXzXfE2brXKeJhncNCISyiOUDgRWpSKJmmejEfYWU7e8RNky0BV3jHAXOot0jZaV1BXxmZPO90oyiMNiafDJOSDaCThoxiZhbXNOJOZdftZXeVAtKEpz/k1KdOGHYIJWy7hzoz4x6EV6/NC3e/LWsvHlJPGXO70UObJROQf63kjvL/PlZKZ2tGETRW/G1j69fFdGgdway7pTbyKIKRT4Cwu3r+O/CjmD3kmUB9SciZhpzJDvWhqG/ySwDO+AQmP9QhlXSzoGYauky+GYe078/9LcdCK43vohCw5WIhW7jedp7CS8sRuYYGMycBkuL0x1A2+MiznTTpsJBLNT9/p4n9ixnbVrE3pph4ZGpV3SmpV3c8a7e6R0ijatvwP3brdcu6xx95lHDIHD5ZbrmJmV5Y9rcc5798w4HUBBoAAA==</t>
+          <t>3BsAAB+LCAAAAAAAAAOlGdtuI0n1V1p+Agm7L04ySVTTK9+StbDjyHbIZF9QubucFGl3e7urk/htkUCLlkUIoVm0XMXTIiSGEexKywyXf1lNMsMTv8CpS1/t7NAhipSuc6tTp861gt65WXjaFQkjGviPa2bDqGnEdwKX+uePazGb182d2js26t04xDvGIV4QBsQacPnR/k1EH9cuGFvu6/r19XXjutkIwnPdMgxTfzIcTJwLssB16kcM+w6ppVzu27lqNuq4iyFh2MUMS87Htf6k3+gQ6nQBNsQ+Pidhox1H1CdR1PMZZZREnDMkmJFOd/gdeTDbauw0TKSvwTPKdkw9V9IVKCVc0cG2ZEoXxLYMy6gbu3Vra2rs7W8395tWw2qa7yWMKSEa4IhNSHhFHQGYMLxYCnZj19oy9rabTQvpG4lAVmYAG408d0yuaETcDvG8qJJFdHWBLYfBqasZ00B6jlcJergKhyFeXkwp80hV9oMgJA4Y6kF7H5HrUajsN10OADu9oCFbdfGqsqyTiISjJbdGNVYbdQOftTwSspMlXCpx4c4BYbMwJki/B5kxdWnkwDf1Y+Lac+xFeaYCEp0G4WW0xA45goDVuYxr3wuwC57FaMSoE2UC1jDoOAyWIBJ2bweeewBiE+oNmFR23wcj843bQXBZFl9EIuEFwh/gVhc4lb8GR5OL4Hrke6tJPIuckM6I220n1BtxiMee4u7EEQsWoEUGQhKWg6zgB2KtDEZd4tAF9o49MGNkN0FKAYBaMQvmlHUCL174qT1LUHQKJ5qSm/SE6RqN4Hp9bvXA7/slKRtxRY5xcJ14zjpcGCEHbkVOeiPrmDJ1F2DKJ9cR4kb4KQ+oB6Ugfxc5aNErJheEsI0uITGIZ70DXlzsluchPVsi8EtwblDDNqA+1MXv1DD2xS9sm6JRz3fvp0uQ6ChejGYQwFfiQLYJuBIIwRG8tof9S4CeUnZx1EpU34BB8sD30q/jEITq0sMrAU6Nkoehvu94sUtkBuj7c+GRXDdFfS8erYEGENQ8AZA5jj0oMgxSxHkW/SUwakWXZZo8CJ2EXnJ/Ni/hEdRwx100HEh+vE41nGDBATqUztMJ0vP0PIM7pOefD7B/HkOOTM1Uhqfew6N7GmI/4udJU2LJkTYTocTsMlXb63eH9BIJmpLFMgixNwSb0IPYFyVPpXow4hCzC7WCmPSIkzNwwppyFZVKdH4bmYgueQKeuvPRlYMKKu7PslOQsVqEIX7GYeBCrcYenYUF/9mIg8vKClviSfx0FYtcYn/oFiFvfJuseAuRLRR8uloS20wQYoU6oJI9GW/tWtsGb4vEGokTjwn2tB70kYxoff+KRGwBbPvamETUhS+KvX3tXTIjFOJZmEhFVGXuPB86CMn7MfTDK6FKC/QtQooEkCnPqY+9dcIUkzHYZwSH3ipHKI86CBygu/vRv25//fzVi8/uPnr65osf/Ofvv3z1j5/ePvshfNz95a+3H/9CHlMSoymeeUQoNG3v7hrNLXC0FIS4cXVR1d3YYQJ2diZqebpGqvsUi06v3zkctMGjcsCEnfcJMQ+GAV4FcbacyEOIjcSV6oknSBJ7KuRl6wK2S3gBl1HIG80rUqTO4+9jlLZ4/fKz1y//dC+3MlhWNsy9ve26ab21qliGaa7RpVWFN/CybVPjgblVN7brlpUjLtGgMUw50KWlduq7dtM09gyraZiJ/gBLHHkTURmlJE3xuV7ik6BOEPssXKUukF8nSOH4UwiRFC1DIbdQLvrFj9/8+WmBSllXQYpSQLkgDqU36clCiD4aT7XJ6GTc6WnT3oT7SYbL0UnhX0Osdk/jqeBUvh9j71sw2/LJVqtBL1fTgrlGsHOhrSASc3FYcLZNULnRA0WWtTwMg3gpbyTHkEE3UKbZZCPHhlwjcMKea0knQ20gl7re/u3zTQzqIMrNTnzK7PGwrS381C8FDBUwEpTDq6j99J+vvvzw1YsXd89/dvvl9wsS1D7pSAN+DtGUX6ZuDylP1ZsSBJ1OhDEvje/m6osC8p7wOKA+i2xzR7SDaoWA1eTSxF/UX0DJE4KFvQBegqB3cdS7YSqw7SOkFwGg5xJDtQ2yrjkFyBye2fXfv/nt3a8+v/vk+ZsP/3j70R9uP/7k9cvfvXn2exl1d0+f3/3kmcry5UIgdOG9uOwANTHaORqPRo3Xbu2rD36u+QHToOfQYpGRvvrg05wwrqjoTjLJ0M6lihRVWCPNM3M+LadKqkOBL2WRDUCHl7BmSqGKWLCkTrbJe3UuisedQHyjP63HEdECaKe+CScpEmfM/yufYpEl9fiRYZmWwkpt+BFmOMqZ/tALZtBkJAgxOpVIClxfz5DRiv0OB6N2a5CRSCVGoQuTlsHnP/6B+lHSVaZzQgYBLDR7TuzxCXeNbB2Fkq9c6tLVpDhvuTzlbZ60ChQwbYehbIJ89cg4iZfQATPVtN6PF88suZ73SPan+S44W/e7RTysc1gofkU0Bwi8SEcKJVNTP+JTqWxhj7hpsiXgCk8zYA71jii7qyvoJUOd55peGAbhxoSTYRKyIXTPkEX0zOIpjc63lJ22m91VAkiSXPrBe/U0FwZd4hFW+ZEt4R4GVw/mhbuvytqPRp6rjFlt3EjNkgnIvzRyR6mqTCsMoW3iDxOVnwYH1L/sVzu9PWvuupbzaHfHnRGC8cwlZGbirV3zUfORtbsNjaMQysdPLoJPLnx2q7YJNItF9mzGHsPUXVGaNLBg5LMoWEoEpErs6Rod0DBiT3iKUl8ScpZCzmTr/EQUXvklAGdcYfmhnp/VZnpB6yS/MPkoHXgDuqAV51UjSUJFIeAGy6XsLateKNS8I3IDnW9OAmTr2fegnvFZrJo0GVWQ5FP+RNYknlUWpyfMx4DnjvUw7p4LfdnDucUDL/X+DwVE5/VQEX0/oucXrOq9Wnt7TbJDrLo1d5z6FizqUI1ndRfP90zDmDfdbYu/zSnhUB0oua64Ca8pNIK5ojqfXvofnf1fg0E5V9wbAAA=</t>
         </r>
       </text>
     </comment>
@@ -40,7 +40,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -493,4 +493,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>2</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>2</EndRow>
+          <EndCol>17</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25C6BD18-A011-4835-97BE-AACADA342F1A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_47.xlsx
+++ b/Testdata/TC_47.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>3BsAAB+LCAAAAAAAAAOlGdtuI0n1V1p+Agm7L04ySVTTK9+StbDjyHbIZF9QubucFGl3e7urk/htkUCLlkUIoVm0XMXTIiSGEexKywyXf1lNMsMTv8CpS1/t7NAhipSuc6tTp861gt65WXjaFQkjGviPa2bDqGnEdwKX+uePazGb182d2js26t04xDvGIV4QBsQacPnR/k1EH9cuGFvu6/r19XXjutkIwnPdMgxTfzIcTJwLssB16kcM+w6ppVzu27lqNuq4iyFh2MUMS87Htf6k3+gQ6nQBNsQ+Pidhox1H1CdR1PMZZZREnDMkmJFOd/gdeTDbauw0TKSvwTPKdkw9V9IVKCVc0cG2ZEoXxLYMy6gbu3Vra2rs7W8395tWw2qa7yWMKSEa4IhNSHhFHQGYMLxYCnZj19oy9rabTQvpG4lAVmYAG408d0yuaETcDvG8qJJFdHWBLYfBqasZ00B6jlcJergKhyFeXkwp80hV9oMgJA4Y6kF7H5HrUajsN10OADu9oCFbdfGqsqyTiISjJbdGNVYbdQOftTwSspMlXCpx4c4BYbMwJki/B5kxdWnkwDf1Y+Lac+xFeaYCEp0G4WW0xA45goDVuYxr3wuwC57FaMSoE2UC1jDoOAyWIBJ2bweeewBiE+oNmFR23wcj843bQXBZFl9EIuEFwh/gVhc4lb8GR5OL4Hrke6tJPIuckM6I220n1BtxiMee4u7EEQsWoEUGQhKWg6zgB2KtDEZd4tAF9o49MGNkN0FKAYBaMQvmlHUCL174qT1LUHQKJ5qSm/SE6RqN4Hp9bvXA7/slKRtxRY5xcJ14zjpcGCEHbkVOeiPrmDJ1F2DKJ9cR4kb4KQ+oB6Ugfxc5aNErJheEsI0uITGIZ70DXlzsluchPVsi8EtwblDDNqA+1MXv1DD2xS9sm6JRz3fvp0uQ6ChejGYQwFfiQLYJuBIIwRG8tof9S4CeUnZx1EpU34BB8sD30q/jEITq0sMrAU6Nkoehvu94sUtkBuj7c+GRXDdFfS8erYEGENQ8AZA5jj0oMgxSxHkW/SUwakWXZZo8CJ2EXnJ/Ni/hEdRwx100HEh+vE41nGDBATqUztMJ0vP0PIM7pOefD7B/HkOOTM1Uhqfew6N7GmI/4udJU2LJkTYTocTsMlXb63eH9BIJmpLFMgixNwSb0IPYFyVPpXow4hCzC7WCmPSIkzNwwppyFZVKdH4bmYgueQKeuvPRlYMKKu7PslOQsVqEIX7GYeBCrcYenYUF/9mIg8vKClviSfx0FYtcYn/oFiFvfJuseAuRLRR8uloS20wQYoU6oJI9GW/tWtsGb4vEGokTjwn2tB70kYxoff+KRGwBbPvamETUhS+KvX3tXTIjFOJZmEhFVGXuPB86CMn7MfTDK6FKC/QtQooEkCnPqY+9dcIUkzHYZwSH3ipHKI86CBygu/vRv25//fzVi8/uPnr65osf/Ofvv3z1j5/ePvshfNz95a+3H/9CHlMSoymeeUQoNG3v7hrNLXC0FIS4cXVR1d3YYQJ2diZqebpGqvsUi06v3zkctMGjcsCEnfcJMQ+GAV4FcbacyEOIjcSV6oknSBJ7KuRl6wK2S3gBl1HIG80rUqTO4+9jlLZ4/fKz1y//dC+3MlhWNsy9ve26ab21qliGaa7RpVWFN/CybVPjgblVN7brlpUjLtGgMUw50KWlduq7dtM09gyraZiJ/gBLHHkTURmlJE3xuV7ik6BOEPssXKUukF8nSOH4UwiRFC1DIbdQLvrFj9/8+WmBSllXQYpSQLkgDqU36clCiD4aT7XJ6GTc6WnT3oT7SYbL0UnhX0Osdk/jqeBUvh9j71sw2/LJVqtBL1fTgrlGsHOhrSASc3FYcLZNULnRA0WWtTwMg3gpbyTHkEE3UKbZZCPHhlwjcMKea0knQ20gl7re/u3zTQzqIMrNTnzK7PGwrS381C8FDBUwEpTDq6j99J+vvvzw1YsXd89/dvvl9wsS1D7pSAN+DtGUX6ZuDylP1ZsSBJ1OhDEvje/m6osC8p7wOKA+i2xzR7SDaoWA1eTSxF/UX0DJE4KFvQBegqB3cdS7YSqw7SOkFwGg5xJDtQ2yrjkFyBye2fXfv/nt3a8+v/vk+ZsP/3j70R9uP/7k9cvfvXn2exl1d0+f3/3kmcry5UIgdOG9uOwANTHaORqPRo3Xbu2rD36u+QHToOfQYpGRvvrg05wwrqjoTjLJ0M6lihRVWCPNM3M+LadKqkOBL2WRDUCHl7BmSqGKWLCkTrbJe3UuisedQHyjP63HEdECaKe+CScpEmfM/yufYpEl9fiRYZmWwkpt+BFmOMqZ/tALZtBkJAgxOpVIClxfz5DRiv0OB6N2a5CRSCVGoQuTlsHnP/6B+lHSVaZzQgYBLDR7TuzxCXeNbB2Fkq9c6tLVpDhvuTzlbZ60ChQwbYehbIJ89cg4iZfQATPVtN6PF88suZ73SPan+S44W/e7RTysc1gofkU0Bwi8SEcKJVNTP+JTqWxhj7hpsiXgCk8zYA71jii7qyvoJUOd55peGAbhxoSTYRKyIXTPkEX0zOIpjc63lJ22m91VAkiSXPrBe/U0FwZd4hFW+ZEt4R4GVw/mhbuvytqPRp6rjFlt3EjNkgnIvzRyR6mqTCsMoW3iDxOVnwYH1L/sVzu9PWvuupbzaHfHnRGC8cwlZGbirV3zUfORtbsNjaMQysdPLoJPLnx2q7YJNItF9mzGHsPUXVGaNLBg5LMoWEoEpErs6Rod0DBiT3iKUl8ScpZCzmTr/EQUXvklAGdcYfmhnp/VZnpB6yS/MPkoHXgDuqAV51UjSUJFIeAGy6XsLateKNS8I3IDnW9OAmTr2fegnvFZrJo0GVWQ5FP+RNYknlUWpyfMx4DnjvUw7p4LfdnDucUDL/X+DwVE5/VQEX0/oucXrOq9Wnt7TbJDrLo1d5z6FizqUI1ndRfP90zDmDfdbYu/zSnhUB0oua64Ca8pNIK5ojqfXvofnf1fg0E5V9wbAAA=</t>
+          <t>BBoAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlkpJ3YxuzDHSzI1SyDEmO13kpRuTYYj0iFXJoWW8pkCBFLiiKYFOkV/QpRYFuF20CpLu9/Euw9m6f+gs9c+HwIjlbbRfGmnNuc+bMuY7Rm9dzalyRKPbD4EHFrlkVgwRu6PnBxYNKws6r9v3Kmw7qXruEHuMIzwkDYgO4gnj/OvYfVGaMLfZNc7lc1paNWhhdmHXLss2Hg/7YnZE5rvpBzHDgkorm8l7NVXFQ25sPCMMeZlhyPqj0xr1am/huB2ADHOALEtVaSewHJI67AfOZT2LOGRHMSLszeFsezKnX7tdsZK7BM8pW4lNP0hUoJVzRwbZk4s+JU7fs3aq1W23YE2tvf8fet+u1e1bjnZRRE6I+jtmYRFe+KwBjhucLwW7tNmxrb8e268jcSASyMgM4aEi9EbnyY+K1CaXxVhYx1QU2XQan3s6YFjJzvErQ66twGOHFbOIzSrZTYzRoGfNA6ZIJcdBBGBEX7PdaKh2R5TBSZp0s+oCdzPyIrTp4tbWsk5hEwwU30nasDuqEAWtSErGTBdw18cAVAOGwKCHIvAOZMXX82IVvP0iI55xjGueZCkh0GkaX8QK75Aji2OQylgENsQcOx/yY+W6cCVjDoOMoXIBI2L0VUu8AxKbUGzBadi8AI/ONW2F4WRZfRCJxr+KG4VbnWMtfg6PxLFwOA7oaJ9PYjfwp8TqtlHojDvGQVNztJGbhHLTIQEjCcpAV/IMQLINRh7j+HNNjCmaMnQZIKQBQM2Hhuc/aIU3mgbZnCYpO4UQTcq1PqNdoCNcbcKuHQS8oSdmIK3KMwmXqOetwYYQcuBm7+kbWMWXqDsCUT64jxI3wUx74FCpE/i5y0KJXjGeEsI0uITGIJ8MDXnOcJqXIzJYI/BKcG9RwLCgbVfEzsax98QPbajTqBt7ddCkSHSXz4RQC+EocyLEBVwIhOAJtURxcAvTUZ7OjZqr6BgySB76Tfh2HIFQXFK8EWBslD0O9wKWJR2QG6AXnwiO5bor6TjxaA/UhqB2Eg9VkteCZwLyDokPOcUKhODHIIRdZeiiBUTO+LNPkQegkoukFO7z0x1D7XW9ecyE78vpWc8M5B5hQck/HyMzT8xTvkm5w0cfBRQJJVNuxDNfuxcN/EuEg5sfRObPkaZuJUHovMpc765eLzBIJmpD5IowwHYBN/IMkEKVS1QIw7gCzmVpB0FLipvY1M1bNVVQq1flVZCL85Al4bs+HXw4qqLjDyw5DBnMRhvgZB6EHNR5TfxoVHGwjDi4rq3ypq/HTbVkFU/tDlwmJ5YdkxVuPbKHg3F8dO0WIFWqDSs54tLNbhx4M2imxRuLEI4Kp0YX+kxGjF1yRmM2Bbd8Ykdj34MvHdN94i0yJDwEvTKRCbmvuPB86iMi7CfTRK6FKE/QtQooEkEov/ADTdUKNyRicM4IjusoRyqP2Qxfobn/6r5tfP3n+9Mvbjx69/Pr9//z9l8//8bObxx/Ax+1f/nrzyS/kMSUxmuApJUKhSWt312rsgKNpEFKpAYq7l7hMwM7ORLHXa6S6VrFod3vtw35L5BINTNl5I5HwYOjjVZhky7E8hNhIXKmZeoIkcSZpblLrArZDeIWXUcgb1CtSpM7j72KUtnjx7MsXz/50J7cyWFZX7L29e1W7/sqyA62+vUanyw5v/GVfl44VO1XrXrVezxGXaNAIpiNo47Sdep7DJwmr3rBsncc97cibiMooJWmCL8wSnwS1wyRg0Uq7QH6dIoXjTyBENFqGQm6hXPTrj1/++VGBSllXQYpSQLkwiaQ3melCiD4aTYzx8GTU7hqT7pj7SYbL0Unh30GsdtfxVHCqIEgw/QHMxHwiNirQ7FWM8Nwg2J0ZK4jEXBwWnG0TVG70miLLWh5GYbKQN5JjyKAbKHU22cixIdcInLDnWtLJUBvIpa43f/tqE4M6iHKzk8BnerjLw1ABI0E5vIraL/75/JsPnz99evvk5zff/KQgQe2jZx7wc4im/FK7PaQ8VW9KEHQ6Fsa8tH6Uqy8KyJvG49APWOzY90W/qFYIWG0uTfxGvTmUPCFY2AvgJQh6C8fda6YC2zlCZhEAei4wVNswa6s1QObwzK7//s1vb3/11e3nT15++Mebj/5w88nnL5797uXj38uou3305PbTxyrLlwuB0IU367IBNMTs5xo8Gg1eu41v3/vMCEJmQM9hJCIjffveFzlhXFHRnWSSoZ3TihRVWCPNM3M+I6eK1qHAp1lkA9DmJayhKVQRCxe+m23yTpWL4nEnEN/rTapJTIwQ2qnvw0mKxBnz/8qnWGRJPX7DqvPXnQzEJyo8xXHO9Ic0nEKTkSLEbFUiKXB9N0NGK/Y77A9bzX5GIpUYRh6MYhYfEPkHSntKXlJ6cbrSQ0UGASw0fm5C+Ti8RraO0pJzacxUY+V50+Ppb/NYVqCA0TyKZEMUqIfKcbKAbpipBvZuvHiTyfW/R7JXzXfE2brXKeJhncNCISyiOUDgRWpSKJmmejEfYWU7e8RNky0BV3jHAXOot0jZaV1BXxmZPO90oyiMNiafDJOSDaCThoxiZhbXNOJOZdftZXeVAtKEpz/k1KdOGHYIJWy7hzoz4x6EV6/NC3e/LWsvHlJPGXO70UObJROQf63kjvL/PlZKZ2tGETRW/G1j69fFdGgdway7pTbyKIKRT4Cwu3r+O/CjmD3kmUB9SciZhpzJDvWhqG/ySwDO+AQmP9QhlXSzoGYauky+GYe078/9LcdCK43vohCw5WIhW7jedp7CS8sRuYYGMycBkuL0x1A2+MiznTTpsJBLNT9/p4n9ixnbVrE3pph4ZGpV3SmpV3c8a7e6R0ijatvwP3brdcu6xx95lHDIHD5ZbrmJmV5Y9rcc5798w4HUBBoAAA==</t>
         </r>
       </text>
     </comment>
@@ -40,7 +40,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -493,37 +493,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>2</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>2</EndRow>
-          <EndCol>17</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25C6BD18-A011-4835-97BE-AACADA342F1A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>